--- a/public/sample/sender_import.xlsx
+++ b/public/sample/sender_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Courier Register\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FR-CHD-00471\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77597C9C-E3C0-409B-9D36-BD82DEF1344B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{101E7121-827F-49D9-BA1D-684D73B44E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{63C2F5DA-525C-4FB0-923C-EC8D03049E07}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2037C1F-56B3-44A3-BF82-B11F4A3EFD10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,54 +35,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>ax_id</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>employee_id</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
+    <t>location</t>
+  </si>
+  <si>
     <t>telephone_no</t>
   </si>
   <si>
-    <t>Fapl</t>
-  </si>
-  <si>
-    <t>Bathinda Office</t>
-  </si>
-  <si>
-    <t>Hisar Office</t>
-  </si>
-  <si>
-    <t>Movi-Kiran</t>
-  </si>
-  <si>
-    <t>Kauser Gauri</t>
-  </si>
-  <si>
-    <t>Shahjahanpur</t>
-  </si>
-  <si>
-    <t>Gyan Pal Singh</t>
-  </si>
-  <si>
-    <t>Patna</t>
-  </si>
-  <si>
-    <t>Sunil Kumar</t>
-  </si>
-  <si>
-    <t>Ratia</t>
-  </si>
-  <si>
-    <t>Phi</t>
-  </si>
-  <si>
-    <t>Lucknow</t>
-  </si>
-  <si>
-    <t>location</t>
+    <t>FAMA-00001</t>
+  </si>
+  <si>
+    <t>RICHPAL</t>
+  </si>
+  <si>
+    <t>00108</t>
+  </si>
+  <si>
+    <t>FAMA-00002</t>
+  </si>
+  <si>
+    <t>AJAY SINGH</t>
+  </si>
+  <si>
+    <t>00109</t>
+  </si>
+  <si>
+    <t>FAMA-00003</t>
+  </si>
+  <si>
+    <t>ANURAG SHARMA</t>
+  </si>
+  <si>
+    <t>00110</t>
   </si>
 </sst>
 </file>
@@ -435,85 +433,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E438F8-0340-4F8A-9464-3E1143399A8E}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D2A031-5F54-44F8-B664-CE1FAF4F1D96}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/public/sample/sender_import.xlsx
+++ b/public/sample/sender_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FR-CHD-00471\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FR-CHD-00471\Documents\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{101E7121-827F-49D9-BA1D-684D73B44E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0E47ABF-B4E8-492E-9EE7-504DA6EF0E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2037C1F-56B3-44A3-BF82-B11F4A3EFD10}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA84E975-5532-494C-A740-004D524DE4B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ax_id</t>
   </si>
@@ -55,13 +55,25 @@
     <t>telephone_no</t>
   </si>
   <si>
+    <t>last_working_date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>FAMA-00001</t>
   </si>
   <si>
     <t>RICHPAL</t>
   </si>
   <si>
-    <t>00108</t>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>FATEHABAD</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
   <si>
     <t>FAMA-00002</t>
@@ -70,26 +82,26 @@
     <t>AJAY SINGH</t>
   </si>
   <si>
-    <t>00109</t>
-  </si>
-  <si>
-    <t>FAMA-00003</t>
-  </si>
-  <si>
-    <t>ANURAG SHARMA</t>
-  </si>
-  <si>
-    <t>00110</t>
+    <t>AMBALA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,20 +123,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -433,16 +482,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D2A031-5F54-44F8-B664-CE1FAF4F1D96}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33EC08B-16BC-4986-B5A2-E70F75C2B4B2}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,41 +510,69 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>108</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9467687855</v>
+      </c>
+      <c r="G2" s="5">
+        <v>42183</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>109</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9467202010</v>
+      </c>
+      <c r="G3" s="5">
+        <v>42582</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>